--- a/dtpu_configurations/only_integer16/80mhz/mxu_8x8/power.xlsx
+++ b/dtpu_configurations/only_integer16/80mhz/mxu_8x8/power.xlsx
@@ -175,19 +175,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.0327623225748539</v>
+        <v>0.034771960228681564</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.013910179026424885</v>
+        <v>0.015054875053465366</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.010808354243636131</v>
+        <v>0.01084665022790432</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.0076916879042983055</v>
+        <v>0.007411157246679068</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>4.538506982498802E-5</v>
+        <v>7.001341873547062E-5</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>0.0018983392510563135</v>
@@ -199,10 +199,10 @@
         <v>1.2604483366012573</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12760573625564575</v>
+        <v>0.12762977182865143</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4566729068756104</v>
+        <v>1.459633708000183</v>
       </c>
     </row>
   </sheetData>
